--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5512048192771084</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7065637065637065</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08980489964615719</v>
+        <v>0.09986577304046632</v>
       </c>
       <c r="J2" t="n">
-        <v>1196.882143528974</v>
+        <v>1295.455568273607</v>
       </c>
       <c r="K2" t="n">
-        <v>2098155.882105346</v>
+        <v>2272081.643592127</v>
       </c>
       <c r="L2" t="n">
-        <v>1448.501253746557</v>
+        <v>1507.342576719747</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6133348277580466</v>
+        <v>0.5812823787021082</v>
       </c>
     </row>
   </sheetData>
